--- a/Code/Results/Cases/Case_1_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9928168478342223</v>
+        <v>1.028455167873632</v>
       </c>
       <c r="D2">
-        <v>1.030122901456433</v>
+        <v>1.037090373158348</v>
       </c>
       <c r="E2">
-        <v>1.000099431097701</v>
+        <v>1.028400354951506</v>
       </c>
       <c r="F2">
-        <v>1.001566013414116</v>
+        <v>1.03922080121117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042962333916255</v>
+        <v>1.036307416417705</v>
       </c>
       <c r="J2">
-        <v>1.015214549167715</v>
+        <v>1.033607391713031</v>
       </c>
       <c r="K2">
-        <v>1.041177940773836</v>
+        <v>1.039882250462479</v>
       </c>
       <c r="L2">
-        <v>1.011557380860862</v>
+        <v>1.031217281667805</v>
       </c>
       <c r="M2">
-        <v>1.013003574212586</v>
+        <v>1.042006606883858</v>
       </c>
       <c r="N2">
-        <v>1.008622071887892</v>
+        <v>1.01514464212819</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9982187397225937</v>
+        <v>1.029567479636824</v>
       </c>
       <c r="D3">
-        <v>1.033084612453968</v>
+        <v>1.037697629840338</v>
       </c>
       <c r="E3">
-        <v>1.004477773639488</v>
+        <v>1.029350129067517</v>
       </c>
       <c r="F3">
-        <v>1.007563557423327</v>
+        <v>1.04052663275196</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044495695686461</v>
+        <v>1.036562816819274</v>
       </c>
       <c r="J3">
-        <v>1.018758081755878</v>
+        <v>1.034359485292177</v>
       </c>
       <c r="K3">
-        <v>1.043310971612978</v>
+        <v>1.040299779767379</v>
       </c>
       <c r="L3">
-        <v>1.015053679339141</v>
+        <v>1.031974600653153</v>
       </c>
       <c r="M3">
-        <v>1.018100567269955</v>
+        <v>1.043121305582433</v>
       </c>
       <c r="N3">
-        <v>1.009845580452835</v>
+        <v>1.015399913991212</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001630707390636</v>
+        <v>1.03028708488381</v>
       </c>
       <c r="D4">
-        <v>1.034960723662677</v>
+        <v>1.038090497351827</v>
       </c>
       <c r="E4">
-        <v>1.007249454564642</v>
+        <v>1.02996491696645</v>
       </c>
       <c r="F4">
-        <v>1.011354806468157</v>
+        <v>1.041371745731729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045455098595978</v>
+        <v>1.036726829572157</v>
       </c>
       <c r="J4">
-        <v>1.020992791291337</v>
+        <v>1.034845480418887</v>
       </c>
       <c r="K4">
-        <v>1.044654747905311</v>
+        <v>1.040569186866336</v>
       </c>
       <c r="L4">
-        <v>1.017261165429705</v>
+        <v>1.032464240192621</v>
       </c>
       <c r="M4">
-        <v>1.021318093736043</v>
+        <v>1.043842201309539</v>
       </c>
       <c r="N4">
-        <v>1.010616553609294</v>
+        <v>1.015564715727895</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003045987159295</v>
+        <v>1.030589575823875</v>
       </c>
       <c r="D5">
-        <v>1.035740109429969</v>
+        <v>1.038255641605806</v>
       </c>
       <c r="E5">
-        <v>1.008400575263962</v>
+        <v>1.030223426899438</v>
       </c>
       <c r="F5">
-        <v>1.012928166798426</v>
+        <v>1.041727069712912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045850819952688</v>
+        <v>1.036795481641341</v>
       </c>
       <c r="J5">
-        <v>1.021918872531055</v>
+        <v>1.035049635355809</v>
       </c>
       <c r="K5">
-        <v>1.045211220558511</v>
+        <v>1.040682262651516</v>
       </c>
       <c r="L5">
-        <v>1.01817657507981</v>
+        <v>1.03266999011904</v>
       </c>
       <c r="M5">
-        <v>1.022652272923471</v>
+        <v>1.044145174364458</v>
       </c>
       <c r="N5">
-        <v>1.01093589124311</v>
+        <v>1.015633908370531</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003282522135096</v>
+        <v>1.030640363593891</v>
       </c>
       <c r="D6">
-        <v>1.035870433489921</v>
+        <v>1.038283369014195</v>
       </c>
       <c r="E6">
-        <v>1.008593043936319</v>
+        <v>1.03026683497731</v>
       </c>
       <c r="F6">
-        <v>1.013191166728884</v>
+        <v>1.041786732486002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045916823581653</v>
+        <v>1.036806991097897</v>
       </c>
       <c r="J6">
-        <v>1.022073595517649</v>
+        <v>1.035083904652342</v>
       </c>
       <c r="K6">
-        <v>1.045304166813939</v>
+        <v>1.040701237830931</v>
       </c>
       <c r="L6">
-        <v>1.018329550861883</v>
+        <v>1.032704530904517</v>
       </c>
       <c r="M6">
-        <v>1.022875227320684</v>
+        <v>1.044196039553574</v>
       </c>
       <c r="N6">
-        <v>1.01098923420946</v>
+        <v>1.015645520843405</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00164969242582</v>
+        <v>1.030291126903303</v>
       </c>
       <c r="D7">
-        <v>1.034971174108919</v>
+        <v>1.038092704086382</v>
       </c>
       <c r="E7">
-        <v>1.007264890501042</v>
+        <v>1.029968370979802</v>
       </c>
       <c r="F7">
-        <v>1.011375909034633</v>
+        <v>1.041376493434512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045460415849152</v>
+        <v>1.03672774807894</v>
       </c>
       <c r="J7">
-        <v>1.021005217558786</v>
+        <v>1.034848208965027</v>
       </c>
       <c r="K7">
-        <v>1.044662216377469</v>
+        <v>1.04057069851001</v>
       </c>
       <c r="L7">
-        <v>1.017273446098584</v>
+        <v>1.032466989804193</v>
       </c>
       <c r="M7">
-        <v>1.021335992627445</v>
+        <v>1.043846250007911</v>
       </c>
       <c r="N7">
-        <v>1.010620839163515</v>
+        <v>1.015565640636963</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9946602491946175</v>
+        <v>1.028831107469255</v>
       </c>
       <c r="D8">
-        <v>1.03113237136323</v>
+        <v>1.037295611955465</v>
       </c>
       <c r="E8">
-        <v>1.001592201876296</v>
+        <v>1.028721290080843</v>
       </c>
       <c r="F8">
-        <v>1.003612054294921</v>
+        <v>1.039662082652586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043487476507867</v>
+        <v>1.036393988650064</v>
       </c>
       <c r="J8">
-        <v>1.016424488357287</v>
+        <v>1.033861702171144</v>
       </c>
       <c r="K8">
-        <v>1.041906522341851</v>
+        <v>1.04002351400104</v>
       </c>
       <c r="L8">
-        <v>1.012750648884853</v>
+        <v>1.031473303490707</v>
       </c>
       <c r="M8">
-        <v>1.014743319304944</v>
+        <v>1.042383406000887</v>
       </c>
       <c r="N8">
-        <v>1.009039964666993</v>
+        <v>1.015230990388</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9816634964038636</v>
+        <v>1.026257280993002</v>
       </c>
       <c r="D9">
-        <v>1.024043767539845</v>
+        <v>1.035890552250591</v>
       </c>
       <c r="E9">
-        <v>0.9910967315961315</v>
+        <v>1.026525449069736</v>
       </c>
       <c r="F9">
-        <v>0.989198639621743</v>
+        <v>1.036642153972861</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039748345478516</v>
+        <v>1.035796301615852</v>
       </c>
       <c r="J9">
-        <v>1.007880805056108</v>
+        <v>1.032118274775497</v>
       </c>
       <c r="K9">
-        <v>1.036758434458206</v>
+        <v>1.039053487102259</v>
       </c>
       <c r="L9">
-        <v>1.004335928854665</v>
+        <v>1.029719247011357</v>
       </c>
       <c r="M9">
-        <v>1.002469426497194</v>
+        <v>1.039802638383736</v>
       </c>
       <c r="N9">
-        <v>1.006086842026459</v>
+        <v>1.014638409402911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9724782383468646</v>
+        <v>1.024540590164494</v>
       </c>
       <c r="D10">
-        <v>1.019076864727564</v>
+        <v>1.0349535753413</v>
       </c>
       <c r="E10">
-        <v>0.983719624294114</v>
+        <v>1.025062658469171</v>
       </c>
       <c r="F10">
-        <v>0.9790262637527504</v>
+        <v>1.03462947186796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0370616413489</v>
+        <v>1.035391415583718</v>
       </c>
       <c r="J10">
-        <v>1.001828010519851</v>
+        <v>1.030952541195019</v>
       </c>
       <c r="K10">
-        <v>1.033110016317779</v>
+        <v>1.038402916838608</v>
       </c>
       <c r="L10">
-        <v>0.9983891819704583</v>
+        <v>1.028547795488957</v>
       </c>
       <c r="M10">
-        <v>0.9937848204837743</v>
+        <v>1.038079974335114</v>
       </c>
       <c r="N10">
-        <v>1.003992247880967</v>
+        <v>1.014241410786507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9683616008014193</v>
+        <v>1.023797034963685</v>
       </c>
       <c r="D11">
-        <v>1.016863195466327</v>
+        <v>1.034547800660625</v>
       </c>
       <c r="E11">
-        <v>0.9804240700642198</v>
+        <v>1.024429509763243</v>
       </c>
       <c r="F11">
-        <v>0.974470115294263</v>
+        <v>1.033758073188582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035847925496314</v>
+        <v>1.035214570313775</v>
       </c>
       <c r="J11">
-        <v>0.999112489539728</v>
+        <v>1.030446939061507</v>
       </c>
       <c r="K11">
-        <v>1.031473952631682</v>
+        <v>1.038120296122543</v>
       </c>
       <c r="L11">
-        <v>0.9957248494856892</v>
+        <v>1.028040043803816</v>
       </c>
       <c r="M11">
-        <v>0.9898901003511305</v>
+        <v>1.037333507886427</v>
       </c>
       <c r="N11">
-        <v>1.003052103298216</v>
+        <v>1.014069043270219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9668100662741647</v>
+        <v>1.023520811255833</v>
       </c>
       <c r="D12">
-        <v>1.01603094129899</v>
+        <v>1.034397070062474</v>
       </c>
       <c r="E12">
-        <v>0.979183708499773</v>
+        <v>1.02419436698261</v>
       </c>
       <c r="F12">
-        <v>0.9727533235527893</v>
+        <v>1.033434410306286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035389122409312</v>
+        <v>1.035148652590916</v>
       </c>
       <c r="J12">
-        <v>0.9980886716672052</v>
+        <v>1.030259010110397</v>
       </c>
       <c r="K12">
-        <v>1.030857326191504</v>
+        <v>1.038015180405414</v>
       </c>
       <c r="L12">
-        <v>0.994720885595521</v>
+        <v>1.027851365608928</v>
       </c>
       <c r="M12">
-        <v>0.9884218299108281</v>
+        <v>1.037056153536776</v>
       </c>
       <c r="N12">
-        <v>1.002697595139506</v>
+        <v>1.01400494834617</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9671439163444476</v>
+        <v>1.023580063752729</v>
       </c>
       <c r="D13">
-        <v>1.016209924273672</v>
+        <v>1.03442940262793</v>
       </c>
       <c r="E13">
-        <v>0.9794505231584415</v>
+        <v>1.024244804250056</v>
       </c>
       <c r="F13">
-        <v>0.9731227157544122</v>
+        <v>1.033503836528182</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035487905104117</v>
+        <v>1.035162802554059</v>
       </c>
       <c r="J13">
-        <v>0.9983089857551475</v>
+        <v>1.030299327214863</v>
       </c>
       <c r="K13">
-        <v>1.030990006205528</v>
+        <v>1.038037734313788</v>
       </c>
       <c r="L13">
-        <v>0.9949369020744027</v>
+        <v>1.027891841199898</v>
       </c>
       <c r="M13">
-        <v>0.988737780744011</v>
+        <v>1.037115650797621</v>
       </c>
       <c r="N13">
-        <v>1.002773883369406</v>
+        <v>1.014018700093239</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9682338172246869</v>
+        <v>1.023774202932956</v>
       </c>
       <c r="D14">
-        <v>1.016794608330742</v>
+        <v>1.034535341377042</v>
       </c>
       <c r="E14">
-        <v>0.9803218791491035</v>
+        <v>1.024410072039675</v>
       </c>
       <c r="F14">
-        <v>0.9743287135316695</v>
+        <v>1.033731318855346</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035810165879365</v>
+        <v>1.035209126216923</v>
       </c>
       <c r="J14">
-        <v>0.9990281752666987</v>
+        <v>1.030431407367061</v>
       </c>
       <c r="K14">
-        <v>1.031423166889381</v>
+        <v>1.038111610033663</v>
       </c>
       <c r="L14">
-        <v>0.9956421589077318</v>
+        <v>1.028024449172126</v>
       </c>
       <c r="M14">
-        <v>0.9897691820136447</v>
+        <v>1.037310583404443</v>
       </c>
       <c r="N14">
-        <v>1.00302290950505</v>
+        <v>1.014063746591821</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.968902321568048</v>
+        <v>1.023893813908554</v>
       </c>
       <c r="D15">
-        <v>1.017153509631425</v>
+        <v>1.03460061272578</v>
       </c>
       <c r="E15">
-        <v>0.9808565648960631</v>
+        <v>1.024511903842646</v>
       </c>
       <c r="F15">
-        <v>0.975068477576938</v>
+        <v>1.033871479922982</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036007651727984</v>
+        <v>1.035237637338166</v>
       </c>
       <c r="J15">
-        <v>0.9994692543194229</v>
+        <v>1.030512769612286</v>
       </c>
       <c r="K15">
-        <v>1.031688854948776</v>
+        <v>1.038157109053355</v>
       </c>
       <c r="L15">
-        <v>0.9960747664667985</v>
+        <v>1.028106143148468</v>
       </c>
       <c r="M15">
-        <v>0.9904017553051105</v>
+        <v>1.037430676692703</v>
       </c>
       <c r="N15">
-        <v>1.003175631022949</v>
+        <v>1.014091491951683</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9727483854317841</v>
+        <v>1.024589932768183</v>
       </c>
       <c r="D16">
-        <v>1.019222407076317</v>
+        <v>1.034980504129557</v>
       </c>
       <c r="E16">
-        <v>0.9839361202542374</v>
+        <v>1.025104683663449</v>
       </c>
       <c r="F16">
-        <v>0.9793253095743213</v>
+        <v>1.034687305744705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037141096618067</v>
+        <v>1.035403120041561</v>
       </c>
       <c r="J16">
-        <v>1.002006159140404</v>
+        <v>1.030986078746902</v>
       </c>
       <c r="K16">
-        <v>1.033217372080987</v>
+        <v>1.03842165410149</v>
       </c>
       <c r="L16">
-        <v>0.9985640484342425</v>
+        <v>1.028581482589455</v>
       </c>
       <c r="M16">
-        <v>0.9940403530422302</v>
+        <v>1.03812950326483</v>
       </c>
       <c r="N16">
-        <v>1.004053917232189</v>
+        <v>1.014252840450142</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9751225967456043</v>
+        <v>1.025026530555359</v>
       </c>
       <c r="D17">
-        <v>1.020502947530245</v>
+        <v>1.035218785161028</v>
       </c>
       <c r="E17">
-        <v>0.9858400403779092</v>
+        <v>1.025476585092589</v>
       </c>
       <c r="F17">
-        <v>0.9819538235614491</v>
+        <v>1.035199078310024</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037838317368889</v>
+        <v>1.03550651408593</v>
       </c>
       <c r="J17">
-        <v>1.003571525036141</v>
+        <v>1.03128274977534</v>
       </c>
       <c r="K17">
-        <v>1.034160788646562</v>
+        <v>1.038587350289918</v>
       </c>
       <c r="L17">
-        <v>1.000100985280689</v>
+        <v>1.028879514665964</v>
       </c>
       <c r="M17">
-        <v>0.9962858433704448</v>
+        <v>1.038567712233196</v>
       </c>
       <c r="N17">
-        <v>1.004595749935586</v>
+        <v>1.014353925623426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9764940958860143</v>
+        <v>1.025281169855257</v>
       </c>
       <c r="D18">
-        <v>1.021243828400247</v>
+        <v>1.035357764852969</v>
       </c>
       <c r="E18">
-        <v>0.9869408736800375</v>
+        <v>1.025693532997018</v>
       </c>
       <c r="F18">
-        <v>0.9834725011044239</v>
+        <v>1.035497596981925</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038240165460288</v>
+        <v>1.03556667476194</v>
       </c>
       <c r="J18">
-        <v>1.004475514599322</v>
+        <v>1.031455712766662</v>
       </c>
       <c r="K18">
-        <v>1.034705671394883</v>
+        <v>1.038683909332089</v>
       </c>
       <c r="L18">
-        <v>1.000988897513672</v>
+        <v>1.02905330301112</v>
       </c>
       <c r="M18">
-        <v>0.9975827523812669</v>
+        <v>1.038823260000918</v>
       </c>
       <c r="N18">
-        <v>1.004908613824064</v>
+        <v>1.014412842089106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9769595224120474</v>
+        <v>1.025367991797282</v>
       </c>
       <c r="D19">
-        <v>1.021495441312344</v>
+        <v>1.035405152360947</v>
       </c>
       <c r="E19">
-        <v>0.9873146156513284</v>
+        <v>1.025767510731092</v>
       </c>
       <c r="F19">
-        <v>0.9839879216406331</v>
+        <v>1.035599385974437</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038376378037619</v>
+        <v>1.035587163012912</v>
       </c>
       <c r="J19">
-        <v>1.00478224168413</v>
+        <v>1.031514675099027</v>
       </c>
       <c r="K19">
-        <v>1.034890560501782</v>
+        <v>1.03871681840756</v>
       </c>
       <c r="L19">
-        <v>1.001290226879486</v>
+        <v>1.029112552101947</v>
       </c>
       <c r="M19">
-        <v>0.9980228269810953</v>
+        <v>1.038910386411292</v>
       </c>
       <c r="N19">
-        <v>1.005014762328039</v>
+        <v>1.014432923486645</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9748692563262907</v>
+        <v>1.024979689908015</v>
       </c>
       <c r="D20">
-        <v>1.020366185810141</v>
+        <v>1.035193220434882</v>
       </c>
       <c r="E20">
-        <v>0.9856367773730512</v>
+        <v>1.025436681101092</v>
       </c>
       <c r="F20">
-        <v>0.9816733193277022</v>
+        <v>1.035144168900098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037764014506924</v>
+        <v>1.035495436122286</v>
       </c>
       <c r="J20">
-        <v>1.003404519898023</v>
+        <v>1.031250928083036</v>
       </c>
       <c r="K20">
-        <v>1.034060130358344</v>
+        <v>1.038569581833393</v>
       </c>
       <c r="L20">
-        <v>0.9999369777555365</v>
+        <v>1.028847543689039</v>
       </c>
       <c r="M20">
-        <v>0.9960462623038852</v>
+        <v>1.038520701962977</v>
       </c>
       <c r="N20">
-        <v>1.004537947295953</v>
+        <v>1.014343084776617</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9679135005283046</v>
+        <v>1.023717034740396</v>
       </c>
       <c r="D21">
-        <v>1.016622714026327</v>
+        <v>1.034504145265028</v>
       </c>
       <c r="E21">
-        <v>0.9800657438188843</v>
+        <v>1.024361403782798</v>
       </c>
       <c r="F21">
-        <v>0.9739742661068245</v>
+        <v>1.033664330630673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035715491740538</v>
+        <v>1.035195491389431</v>
       </c>
       <c r="J21">
-        <v>0.9988168181240419</v>
+        <v>1.030392516533879</v>
       </c>
       <c r="K21">
-        <v>1.031295862029764</v>
+        <v>1.038089859276656</v>
       </c>
       <c r="L21">
-        <v>0.9954348809788393</v>
+        <v>1.02798540154975</v>
       </c>
       <c r="M21">
-        <v>0.9894660684398864</v>
+        <v>1.037253182931581</v>
       </c>
       <c r="N21">
-        <v>1.002949726386398</v>
+        <v>1.014050483453175</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9634095091224347</v>
+        <v>1.022922954642578</v>
       </c>
       <c r="D22">
-        <v>1.014210892660405</v>
+        <v>1.034070851545651</v>
       </c>
       <c r="E22">
-        <v>0.9764684334537734</v>
+        <v>1.023685547092628</v>
       </c>
       <c r="F22">
-        <v>0.9689912349498204</v>
+        <v>1.032733973768454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034381132211551</v>
+        <v>1.035005576270074</v>
       </c>
       <c r="J22">
-        <v>0.9958441507877278</v>
+        <v>1.029852070826335</v>
       </c>
       <c r="K22">
-        <v>1.029505989586671</v>
+        <v>1.037787441567342</v>
       </c>
       <c r="L22">
-        <v>0.9925209265524246</v>
+        <v>1.027442894982645</v>
       </c>
       <c r="M22">
-        <v>0.9852030681496855</v>
+        <v>1.036455759404606</v>
       </c>
       <c r="N22">
-        <v>1.001920327471183</v>
+        <v>1.013866108571726</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9658100795828709</v>
+        <v>1.023343930906558</v>
       </c>
       <c r="D23">
-        <v>1.015495149319966</v>
+        <v>1.034300552719033</v>
       </c>
       <c r="E23">
-        <v>0.9783847733343999</v>
+        <v>1.02404381154252</v>
       </c>
       <c r="F23">
-        <v>0.971646930727291</v>
+        <v>1.033227167168665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035093043847522</v>
+        <v>1.035106379780276</v>
       </c>
       <c r="J23">
-        <v>0.9974287142423136</v>
+        <v>1.030138640636318</v>
       </c>
       <c r="K23">
-        <v>1.030459917630347</v>
+        <v>1.037947834358653</v>
       </c>
       <c r="L23">
-        <v>0.9940738840786562</v>
+        <v>1.027730530251231</v>
       </c>
       <c r="M23">
-        <v>0.9874754016478254</v>
+        <v>1.03687853528859</v>
       </c>
       <c r="N23">
-        <v>1.002469065126096</v>
+        <v>1.013963887613567</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.974983771065372</v>
+        <v>1.025000855244133</v>
       </c>
       <c r="D24">
-        <v>1.020428001160613</v>
+        <v>1.035204772051557</v>
       </c>
       <c r="E24">
-        <v>0.9857286530475561</v>
+        <v>1.025454711922509</v>
       </c>
       <c r="F24">
-        <v>0.9818001117715496</v>
+        <v>1.035168980066123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037797603664673</v>
+        <v>1.035500442232321</v>
       </c>
       <c r="J24">
-        <v>1.003480010266116</v>
+        <v>1.03126530718356</v>
       </c>
       <c r="K24">
-        <v>1.034105630147698</v>
+        <v>1.038577610908232</v>
       </c>
       <c r="L24">
-        <v>1.000011112074871</v>
+        <v>1.028861990147632</v>
       </c>
       <c r="M24">
-        <v>0.9961545582721282</v>
+        <v>1.038541944040993</v>
       </c>
       <c r="N24">
-        <v>1.004564075618507</v>
+        <v>1.014347983427014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9851102934582259</v>
+        <v>1.026922813367461</v>
       </c>
       <c r="D25">
-        <v>1.025917035929599</v>
+        <v>1.036253845406673</v>
       </c>
       <c r="E25">
-        <v>0.9938735933787244</v>
+        <v>1.027092930444492</v>
       </c>
       <c r="F25">
-        <v>0.9930185917571901</v>
+        <v>1.037422762431828</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040747820736485</v>
+        <v>1.035951951000466</v>
       </c>
       <c r="J25">
-        <v>1.010149360260585</v>
+        <v>1.032569597776853</v>
       </c>
       <c r="K25">
-        <v>1.038125917267236</v>
+        <v>1.039304949065932</v>
       </c>
       <c r="L25">
-        <v>1.006567764272552</v>
+        <v>1.030173077370371</v>
       </c>
       <c r="M25">
-        <v>1.005726260581661</v>
+        <v>1.040470200552347</v>
       </c>
       <c r="N25">
-        <v>1.006871435036588</v>
+        <v>1.014791948152948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028455167873632</v>
+        <v>0.9928168478342224</v>
       </c>
       <c r="D2">
-        <v>1.037090373158348</v>
+        <v>1.030122901456433</v>
       </c>
       <c r="E2">
-        <v>1.028400354951506</v>
+        <v>1.000099431097701</v>
       </c>
       <c r="F2">
-        <v>1.03922080121117</v>
+        <v>1.001566013414116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036307416417705</v>
+        <v>1.042962333916255</v>
       </c>
       <c r="J2">
-        <v>1.033607391713031</v>
+        <v>1.015214549167715</v>
       </c>
       <c r="K2">
-        <v>1.039882250462479</v>
+        <v>1.041177940773836</v>
       </c>
       <c r="L2">
-        <v>1.031217281667805</v>
+        <v>1.011557380860862</v>
       </c>
       <c r="M2">
-        <v>1.042006606883858</v>
+        <v>1.013003574212586</v>
       </c>
       <c r="N2">
-        <v>1.01514464212819</v>
+        <v>1.008622071887892</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029567479636824</v>
+        <v>0.9982187397225932</v>
       </c>
       <c r="D3">
-        <v>1.037697629840338</v>
+        <v>1.033084612453967</v>
       </c>
       <c r="E3">
-        <v>1.029350129067517</v>
+        <v>1.004477773639488</v>
       </c>
       <c r="F3">
-        <v>1.04052663275196</v>
+        <v>1.007563557423327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036562816819274</v>
+        <v>1.044495695686461</v>
       </c>
       <c r="J3">
-        <v>1.034359485292177</v>
+        <v>1.018758081755878</v>
       </c>
       <c r="K3">
-        <v>1.040299779767379</v>
+        <v>1.043310971612977</v>
       </c>
       <c r="L3">
-        <v>1.031974600653153</v>
+        <v>1.015053679339141</v>
       </c>
       <c r="M3">
-        <v>1.043121305582433</v>
+        <v>1.018100567269954</v>
       </c>
       <c r="N3">
-        <v>1.015399913991212</v>
+        <v>1.009845580452835</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03028708488381</v>
+        <v>1.001630707390636</v>
       </c>
       <c r="D4">
-        <v>1.038090497351827</v>
+        <v>1.034960723662677</v>
       </c>
       <c r="E4">
-        <v>1.02996491696645</v>
+        <v>1.007249454564642</v>
       </c>
       <c r="F4">
-        <v>1.041371745731729</v>
+        <v>1.011354806468157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036726829572157</v>
+        <v>1.045455098595978</v>
       </c>
       <c r="J4">
-        <v>1.034845480418887</v>
+        <v>1.020992791291336</v>
       </c>
       <c r="K4">
-        <v>1.040569186866336</v>
+        <v>1.044654747905311</v>
       </c>
       <c r="L4">
-        <v>1.032464240192621</v>
+        <v>1.017261165429705</v>
       </c>
       <c r="M4">
-        <v>1.043842201309539</v>
+        <v>1.021318093736043</v>
       </c>
       <c r="N4">
-        <v>1.015564715727895</v>
+        <v>1.010616553609294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030589575823875</v>
+        <v>1.003045987159295</v>
       </c>
       <c r="D5">
-        <v>1.038255641605806</v>
+        <v>1.035740109429969</v>
       </c>
       <c r="E5">
-        <v>1.030223426899438</v>
+        <v>1.008400575263962</v>
       </c>
       <c r="F5">
-        <v>1.041727069712912</v>
+        <v>1.012928166798426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036795481641341</v>
+        <v>1.045850819952689</v>
       </c>
       <c r="J5">
-        <v>1.035049635355809</v>
+        <v>1.021918872531055</v>
       </c>
       <c r="K5">
-        <v>1.040682262651516</v>
+        <v>1.045211220558511</v>
       </c>
       <c r="L5">
-        <v>1.03266999011904</v>
+        <v>1.01817657507981</v>
       </c>
       <c r="M5">
-        <v>1.044145174364458</v>
+        <v>1.02265227292347</v>
       </c>
       <c r="N5">
-        <v>1.015633908370531</v>
+        <v>1.01093589124311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030640363593891</v>
+        <v>1.003282522135096</v>
       </c>
       <c r="D6">
-        <v>1.038283369014195</v>
+        <v>1.035870433489921</v>
       </c>
       <c r="E6">
-        <v>1.03026683497731</v>
+        <v>1.008593043936319</v>
       </c>
       <c r="F6">
-        <v>1.041786732486002</v>
+        <v>1.013191166728884</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036806991097897</v>
+        <v>1.045916823581653</v>
       </c>
       <c r="J6">
-        <v>1.035083904652342</v>
+        <v>1.022073595517648</v>
       </c>
       <c r="K6">
-        <v>1.040701237830931</v>
+        <v>1.045304166813938</v>
       </c>
       <c r="L6">
-        <v>1.032704530904517</v>
+        <v>1.018329550861882</v>
       </c>
       <c r="M6">
-        <v>1.044196039553574</v>
+        <v>1.022875227320684</v>
       </c>
       <c r="N6">
-        <v>1.015645520843405</v>
+        <v>1.01098923420946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030291126903303</v>
+        <v>1.001649692425819</v>
       </c>
       <c r="D7">
-        <v>1.038092704086382</v>
+        <v>1.034971174108919</v>
       </c>
       <c r="E7">
-        <v>1.029968370979802</v>
+        <v>1.007264890501041</v>
       </c>
       <c r="F7">
-        <v>1.041376493434512</v>
+        <v>1.011375909034633</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03672774807894</v>
+        <v>1.045460415849152</v>
       </c>
       <c r="J7">
-        <v>1.034848208965027</v>
+        <v>1.021005217558785</v>
       </c>
       <c r="K7">
-        <v>1.04057069851001</v>
+        <v>1.044662216377468</v>
       </c>
       <c r="L7">
-        <v>1.032466989804193</v>
+        <v>1.017273446098583</v>
       </c>
       <c r="M7">
-        <v>1.043846250007911</v>
+        <v>1.021335992627444</v>
       </c>
       <c r="N7">
-        <v>1.015565640636963</v>
+        <v>1.010620839163514</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028831107469255</v>
+        <v>0.9946602491946158</v>
       </c>
       <c r="D8">
-        <v>1.037295611955465</v>
+        <v>1.031132371363229</v>
       </c>
       <c r="E8">
-        <v>1.028721290080843</v>
+        <v>1.001592201876294</v>
       </c>
       <c r="F8">
-        <v>1.039662082652586</v>
+        <v>1.003612054294919</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036393988650064</v>
+        <v>1.043487476507867</v>
       </c>
       <c r="J8">
-        <v>1.033861702171144</v>
+        <v>1.016424488357286</v>
       </c>
       <c r="K8">
-        <v>1.04002351400104</v>
+        <v>1.04190652234185</v>
       </c>
       <c r="L8">
-        <v>1.031473303490707</v>
+        <v>1.012750648884851</v>
       </c>
       <c r="M8">
-        <v>1.042383406000887</v>
+        <v>1.014743319304942</v>
       </c>
       <c r="N8">
-        <v>1.015230990388</v>
+        <v>1.009039964666992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026257280993002</v>
+        <v>0.9816634964038634</v>
       </c>
       <c r="D9">
-        <v>1.035890552250591</v>
+        <v>1.024043767539845</v>
       </c>
       <c r="E9">
-        <v>1.026525449069736</v>
+        <v>0.9910967315961311</v>
       </c>
       <c r="F9">
-        <v>1.036642153972861</v>
+        <v>0.9891986396217431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035796301615852</v>
+        <v>1.039748345478516</v>
       </c>
       <c r="J9">
-        <v>1.032118274775497</v>
+        <v>1.007880805056108</v>
       </c>
       <c r="K9">
-        <v>1.039053487102259</v>
+        <v>1.036758434458206</v>
       </c>
       <c r="L9">
-        <v>1.029719247011357</v>
+        <v>1.004335928854665</v>
       </c>
       <c r="M9">
-        <v>1.039802638383736</v>
+        <v>1.002469426497194</v>
       </c>
       <c r="N9">
-        <v>1.014638409402911</v>
+        <v>1.006086842026459</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024540590164494</v>
+        <v>0.9724782383468642</v>
       </c>
       <c r="D10">
-        <v>1.0349535753413</v>
+        <v>1.019076864727564</v>
       </c>
       <c r="E10">
-        <v>1.025062658469171</v>
+        <v>0.9837196242941135</v>
       </c>
       <c r="F10">
-        <v>1.03462947186796</v>
+        <v>0.9790262637527501</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035391415583718</v>
+        <v>1.0370616413489</v>
       </c>
       <c r="J10">
-        <v>1.030952541195019</v>
+        <v>1.00182801051985</v>
       </c>
       <c r="K10">
-        <v>1.038402916838608</v>
+        <v>1.03311001631778</v>
       </c>
       <c r="L10">
-        <v>1.028547795488957</v>
+        <v>0.9983891819704578</v>
       </c>
       <c r="M10">
-        <v>1.038079974335114</v>
+        <v>0.9937848204837741</v>
       </c>
       <c r="N10">
-        <v>1.014241410786507</v>
+        <v>1.003992247880966</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023797034963685</v>
+        <v>0.9683616008014185</v>
       </c>
       <c r="D11">
-        <v>1.034547800660625</v>
+        <v>1.016863195466326</v>
       </c>
       <c r="E11">
-        <v>1.024429509763243</v>
+        <v>0.9804240700642193</v>
       </c>
       <c r="F11">
-        <v>1.033758073188582</v>
+        <v>0.9744701152942626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035214570313775</v>
+        <v>1.035847925496314</v>
       </c>
       <c r="J11">
-        <v>1.030446939061507</v>
+        <v>0.9991124895397273</v>
       </c>
       <c r="K11">
-        <v>1.038120296122543</v>
+        <v>1.031473952631682</v>
       </c>
       <c r="L11">
-        <v>1.028040043803816</v>
+        <v>0.9957248494856885</v>
       </c>
       <c r="M11">
-        <v>1.037333507886427</v>
+        <v>0.98989010035113</v>
       </c>
       <c r="N11">
-        <v>1.014069043270219</v>
+        <v>1.003052103298216</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023520811255833</v>
+        <v>0.9668100662741649</v>
       </c>
       <c r="D12">
-        <v>1.034397070062474</v>
+        <v>1.016030941298989</v>
       </c>
       <c r="E12">
-        <v>1.02419436698261</v>
+        <v>0.9791837084997732</v>
       </c>
       <c r="F12">
-        <v>1.033434410306286</v>
+        <v>0.9727533235527894</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035148652590916</v>
+        <v>1.035389122409312</v>
       </c>
       <c r="J12">
-        <v>1.030259010110397</v>
+        <v>0.9980886716672054</v>
       </c>
       <c r="K12">
-        <v>1.038015180405414</v>
+        <v>1.030857326191504</v>
       </c>
       <c r="L12">
-        <v>1.027851365608928</v>
+        <v>0.9947208855955212</v>
       </c>
       <c r="M12">
-        <v>1.037056153536776</v>
+        <v>0.9884218299108281</v>
       </c>
       <c r="N12">
-        <v>1.01400494834617</v>
+        <v>1.002697595139506</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023580063752729</v>
+        <v>0.9671439163444481</v>
       </c>
       <c r="D13">
-        <v>1.03442940262793</v>
+        <v>1.016209924273673</v>
       </c>
       <c r="E13">
-        <v>1.024244804250056</v>
+        <v>0.9794505231584417</v>
       </c>
       <c r="F13">
-        <v>1.033503836528182</v>
+        <v>0.9731227157544131</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035162802554059</v>
+        <v>1.035487905104117</v>
       </c>
       <c r="J13">
-        <v>1.030299327214863</v>
+        <v>0.998308985755148</v>
       </c>
       <c r="K13">
-        <v>1.038037734313788</v>
+        <v>1.030990006205529</v>
       </c>
       <c r="L13">
-        <v>1.027891841199898</v>
+        <v>0.9949369020744029</v>
       </c>
       <c r="M13">
-        <v>1.037115650797621</v>
+        <v>0.9887377807440116</v>
       </c>
       <c r="N13">
-        <v>1.014018700093239</v>
+        <v>1.002773883369406</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023774202932956</v>
+        <v>0.9682338172246865</v>
       </c>
       <c r="D14">
-        <v>1.034535341377042</v>
+        <v>1.016794608330741</v>
       </c>
       <c r="E14">
-        <v>1.024410072039675</v>
+        <v>0.9803218791491031</v>
       </c>
       <c r="F14">
-        <v>1.033731318855346</v>
+        <v>0.9743287135316689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035209126216923</v>
+        <v>1.035810165879364</v>
       </c>
       <c r="J14">
-        <v>1.030431407367061</v>
+        <v>0.9990281752666983</v>
       </c>
       <c r="K14">
-        <v>1.038111610033663</v>
+        <v>1.031423166889381</v>
       </c>
       <c r="L14">
-        <v>1.028024449172126</v>
+        <v>0.9956421589077312</v>
       </c>
       <c r="M14">
-        <v>1.037310583404443</v>
+        <v>0.9897691820136445</v>
       </c>
       <c r="N14">
-        <v>1.014063746591821</v>
+        <v>1.00302290950505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023893813908554</v>
+        <v>0.9689023215680486</v>
       </c>
       <c r="D15">
-        <v>1.03460061272578</v>
+        <v>1.017153509631425</v>
       </c>
       <c r="E15">
-        <v>1.024511903842646</v>
+        <v>0.9808565648960637</v>
       </c>
       <c r="F15">
-        <v>1.033871479922982</v>
+        <v>0.9750684775769386</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035237637338166</v>
+        <v>1.036007651727985</v>
       </c>
       <c r="J15">
-        <v>1.030512769612286</v>
+        <v>0.9994692543194236</v>
       </c>
       <c r="K15">
-        <v>1.038157109053355</v>
+        <v>1.031688854948777</v>
       </c>
       <c r="L15">
-        <v>1.028106143148468</v>
+        <v>0.996074766466799</v>
       </c>
       <c r="M15">
-        <v>1.037430676692703</v>
+        <v>0.990401755305111</v>
       </c>
       <c r="N15">
-        <v>1.014091491951683</v>
+        <v>1.003175631022949</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024589932768183</v>
+        <v>0.9727483854317834</v>
       </c>
       <c r="D16">
-        <v>1.034980504129557</v>
+        <v>1.019222407076317</v>
       </c>
       <c r="E16">
-        <v>1.025104683663449</v>
+        <v>0.9839361202542366</v>
       </c>
       <c r="F16">
-        <v>1.034687305744705</v>
+        <v>0.9793253095743211</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035403120041561</v>
+        <v>1.037141096618067</v>
       </c>
       <c r="J16">
-        <v>1.030986078746902</v>
+        <v>1.002006159140404</v>
       </c>
       <c r="K16">
-        <v>1.03842165410149</v>
+        <v>1.033217372080987</v>
       </c>
       <c r="L16">
-        <v>1.028581482589455</v>
+        <v>0.9985640484342417</v>
       </c>
       <c r="M16">
-        <v>1.03812950326483</v>
+        <v>0.9940403530422299</v>
       </c>
       <c r="N16">
-        <v>1.014252840450142</v>
+        <v>1.004053917232189</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025026530555359</v>
+        <v>0.9751225967456042</v>
       </c>
       <c r="D17">
-        <v>1.035218785161028</v>
+        <v>1.020502947530245</v>
       </c>
       <c r="E17">
-        <v>1.025476585092589</v>
+        <v>0.9858400403779092</v>
       </c>
       <c r="F17">
-        <v>1.035199078310024</v>
+        <v>0.9819538235614491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03550651408593</v>
+        <v>1.037838317368889</v>
       </c>
       <c r="J17">
-        <v>1.03128274977534</v>
+        <v>1.003571525036141</v>
       </c>
       <c r="K17">
-        <v>1.038587350289918</v>
+        <v>1.034160788646562</v>
       </c>
       <c r="L17">
-        <v>1.028879514665964</v>
+        <v>1.000100985280689</v>
       </c>
       <c r="M17">
-        <v>1.038567712233196</v>
+        <v>0.9962858433704448</v>
       </c>
       <c r="N17">
-        <v>1.014353925623426</v>
+        <v>1.004595749935586</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025281169855257</v>
+        <v>0.976494095886014</v>
       </c>
       <c r="D18">
-        <v>1.035357764852969</v>
+        <v>1.021243828400246</v>
       </c>
       <c r="E18">
-        <v>1.025693532997018</v>
+        <v>0.9869408736800371</v>
       </c>
       <c r="F18">
-        <v>1.035497596981925</v>
+        <v>0.9834725011044234</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03556667476194</v>
+        <v>1.038240165460288</v>
       </c>
       <c r="J18">
-        <v>1.031455712766662</v>
+        <v>1.004475514599322</v>
       </c>
       <c r="K18">
-        <v>1.038683909332089</v>
+        <v>1.034705671394882</v>
       </c>
       <c r="L18">
-        <v>1.02905330301112</v>
+        <v>1.000988897513672</v>
       </c>
       <c r="M18">
-        <v>1.038823260000918</v>
+        <v>0.9975827523812666</v>
       </c>
       <c r="N18">
-        <v>1.014412842089106</v>
+        <v>1.004908613824063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025367991797282</v>
+        <v>0.9769595224120471</v>
       </c>
       <c r="D19">
-        <v>1.035405152360947</v>
+        <v>1.021495441312345</v>
       </c>
       <c r="E19">
-        <v>1.025767510731092</v>
+        <v>0.9873146156513282</v>
       </c>
       <c r="F19">
-        <v>1.035599385974437</v>
+        <v>0.983987921640633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035587163012912</v>
+        <v>1.038376378037619</v>
       </c>
       <c r="J19">
-        <v>1.031514675099027</v>
+        <v>1.00478224168413</v>
       </c>
       <c r="K19">
-        <v>1.03871681840756</v>
+        <v>1.034890560501782</v>
       </c>
       <c r="L19">
-        <v>1.029112552101947</v>
+        <v>1.001290226879486</v>
       </c>
       <c r="M19">
-        <v>1.038910386411292</v>
+        <v>0.9980228269810955</v>
       </c>
       <c r="N19">
-        <v>1.014432923486645</v>
+        <v>1.005014762328039</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024979689908015</v>
+        <v>0.9748692563262904</v>
       </c>
       <c r="D20">
-        <v>1.035193220434882</v>
+        <v>1.020366185810141</v>
       </c>
       <c r="E20">
-        <v>1.025436681101092</v>
+        <v>0.985636777373051</v>
       </c>
       <c r="F20">
-        <v>1.035144168900098</v>
+        <v>0.9816733193277021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035495436122286</v>
+        <v>1.037764014506924</v>
       </c>
       <c r="J20">
-        <v>1.031250928083036</v>
+        <v>1.003404519898023</v>
       </c>
       <c r="K20">
-        <v>1.038569581833393</v>
+        <v>1.034060130358345</v>
       </c>
       <c r="L20">
-        <v>1.028847543689039</v>
+        <v>0.9999369777555362</v>
       </c>
       <c r="M20">
-        <v>1.038520701962977</v>
+        <v>0.9960462623038848</v>
       </c>
       <c r="N20">
-        <v>1.014343084776617</v>
+        <v>1.004537947295953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023717034740396</v>
+        <v>0.9679135005283038</v>
       </c>
       <c r="D21">
-        <v>1.034504145265028</v>
+        <v>1.016622714026326</v>
       </c>
       <c r="E21">
-        <v>1.024361403782798</v>
+        <v>0.9800657438188836</v>
       </c>
       <c r="F21">
-        <v>1.033664330630673</v>
+        <v>0.9739742661068239</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035195491389431</v>
+        <v>1.035715491740537</v>
       </c>
       <c r="J21">
-        <v>1.030392516533879</v>
+        <v>0.9988168181240413</v>
       </c>
       <c r="K21">
-        <v>1.038089859276656</v>
+        <v>1.031295862029764</v>
       </c>
       <c r="L21">
-        <v>1.02798540154975</v>
+        <v>0.9954348809788385</v>
       </c>
       <c r="M21">
-        <v>1.037253182931581</v>
+        <v>0.9894660684398859</v>
       </c>
       <c r="N21">
-        <v>1.014050483453175</v>
+        <v>1.002949726386398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022922954642578</v>
+        <v>0.9634095091224349</v>
       </c>
       <c r="D22">
-        <v>1.034070851545651</v>
+        <v>1.014210892660405</v>
       </c>
       <c r="E22">
-        <v>1.023685547092628</v>
+        <v>0.9764684334537735</v>
       </c>
       <c r="F22">
-        <v>1.032733973768454</v>
+        <v>0.9689912349498209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035005576270074</v>
+        <v>1.034381132211551</v>
       </c>
       <c r="J22">
-        <v>1.029852070826335</v>
+        <v>0.995844150787728</v>
       </c>
       <c r="K22">
-        <v>1.037787441567342</v>
+        <v>1.029505989586671</v>
       </c>
       <c r="L22">
-        <v>1.027442894982645</v>
+        <v>0.9925209265524246</v>
       </c>
       <c r="M22">
-        <v>1.036455759404606</v>
+        <v>0.9852030681496859</v>
       </c>
       <c r="N22">
-        <v>1.013866108571726</v>
+        <v>1.001920327471183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023343930906558</v>
+        <v>0.9658100795828708</v>
       </c>
       <c r="D23">
-        <v>1.034300552719033</v>
+        <v>1.015495149319965</v>
       </c>
       <c r="E23">
-        <v>1.02404381154252</v>
+        <v>0.9783847733343995</v>
       </c>
       <c r="F23">
-        <v>1.033227167168665</v>
+        <v>0.9716469307272909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035106379780276</v>
+        <v>1.035093043847522</v>
       </c>
       <c r="J23">
-        <v>1.030138640636318</v>
+        <v>0.9974287142423136</v>
       </c>
       <c r="K23">
-        <v>1.037947834358653</v>
+        <v>1.030459917630347</v>
       </c>
       <c r="L23">
-        <v>1.027730530251231</v>
+        <v>0.9940738840786559</v>
       </c>
       <c r="M23">
-        <v>1.03687853528859</v>
+        <v>0.9874754016478252</v>
       </c>
       <c r="N23">
-        <v>1.013963887613567</v>
+        <v>1.002469065126096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025000855244133</v>
+        <v>0.9749837710653713</v>
       </c>
       <c r="D24">
-        <v>1.035204772051557</v>
+        <v>1.020428001160613</v>
       </c>
       <c r="E24">
-        <v>1.025454711922509</v>
+        <v>0.9857286530475551</v>
       </c>
       <c r="F24">
-        <v>1.035168980066123</v>
+        <v>0.9818001117715489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035500442232321</v>
+        <v>1.037797603664673</v>
       </c>
       <c r="J24">
-        <v>1.03126530718356</v>
+        <v>1.003480010266115</v>
       </c>
       <c r="K24">
-        <v>1.038577610908232</v>
+        <v>1.034105630147698</v>
       </c>
       <c r="L24">
-        <v>1.028861990147632</v>
+        <v>1.00001111207487</v>
       </c>
       <c r="M24">
-        <v>1.038541944040993</v>
+        <v>0.9961545582721276</v>
       </c>
       <c r="N24">
-        <v>1.014347983427014</v>
+        <v>1.004564075618507</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026922813367461</v>
+        <v>0.9851102934582258</v>
       </c>
       <c r="D25">
-        <v>1.036253845406673</v>
+        <v>1.025917035929598</v>
       </c>
       <c r="E25">
-        <v>1.027092930444492</v>
+        <v>0.9938735933787242</v>
       </c>
       <c r="F25">
-        <v>1.037422762431828</v>
+        <v>0.9930185917571897</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035951951000466</v>
+        <v>1.040747820736485</v>
       </c>
       <c r="J25">
-        <v>1.032569597776853</v>
+        <v>1.010149360260585</v>
       </c>
       <c r="K25">
-        <v>1.039304949065932</v>
+        <v>1.038125917267236</v>
       </c>
       <c r="L25">
-        <v>1.030173077370371</v>
+        <v>1.006567764272551</v>
       </c>
       <c r="M25">
-        <v>1.040470200552347</v>
+        <v>1.00572626058166</v>
       </c>
       <c r="N25">
-        <v>1.014791948152948</v>
+        <v>1.006871435036588</v>
       </c>
     </row>
   </sheetData>
